--- a/DB設計.xlsx
+++ b/DB設計.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/florlight/Documents/IW13A727/就職作品/syupure/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/syupure/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16480" tabRatio="500" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,11 @@
     <sheet name="book" sheetId="3" r:id="rId3"/>
     <sheet name="circle" sheetId="4" r:id="rId4"/>
     <sheet name="circle_member" sheetId="5" r:id="rId5"/>
+    <sheet name="order_book" sheetId="6" r:id="rId6"/>
+    <sheet name="paper_type" sheetId="7" r:id="rId7"/>
+    <sheet name="binding_method" sheetId="8" r:id="rId8"/>
+    <sheet name="paper_size" sheetId="9" r:id="rId9"/>
+    <sheet name="book_property" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="142">
   <si>
     <t>ユーザtbl</t>
     <phoneticPr fontId="1"/>
@@ -451,6 +456,282 @@
   </si>
   <si>
     <t>int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>order_book</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>紙サイズ</t>
+    <rPh sb="0" eb="1">
+      <t>カミサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>綴じ方向</t>
+    <rPh sb="0" eb="1">
+      <t>トジホ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>綴じ方法</t>
+    <rPh sb="0" eb="1">
+      <t>トz</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホウホ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>紙方向</t>
+    <rPh sb="0" eb="3">
+      <t>カm</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部数</t>
+    <rPh sb="0" eb="2">
+      <t>ブス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>総ページ数</t>
+    <rPh sb="0" eb="1">
+      <t>ソウペ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>al_bd_direction</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>al_bd_method</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>al_pp_direction</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>al_bk_num</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>al_pp_num</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fr_clorbw</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fr_pp_type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>in_clorbw</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>in_pp_type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>al-pp-size</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>enum(RIGHT, LEFT)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>enum(COLOR, BANDW)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>enum(VERTI, HORIZ)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>binding_method</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>paper_type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>paper_type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>紙質名</t>
+    <rPh sb="0" eb="2">
+      <t>カミシt</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR(255)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>紙質tbl</t>
+    <rPh sb="0" eb="2">
+      <t>カミシt</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>綴じ方法tbl</t>
+    <rPh sb="0" eb="1">
+      <t>トジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホウホ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>注文tbl</t>
+    <rPh sb="0" eb="2">
+      <t>チュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>注文日付</t>
+    <rPh sb="0" eb="4">
+      <t>チュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR(255)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表紙カラー</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本文用紙カラー</t>
+    <rPh sb="0" eb="4">
+      <t>ホn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表紙紙質</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カミシt</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本文用紙紙質</t>
+    <rPh sb="0" eb="4">
+      <t>ホn</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カm</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>binding_method</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>綴じ方法名</t>
+    <rPh sb="0" eb="1">
+      <t>トジ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ホウホ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>paper_size</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイズ名</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>book_property</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブック注文仕様tbl</t>
+    <rPh sb="3" eb="5">
+      <t>チュ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シヨ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -776,8 +1057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
@@ -1128,6 +1409,359 @@
       </c>
       <c r="H16" t="s">
         <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L1" t="s">
+        <v>134</v>
+      </c>
+      <c r="M1" t="s">
+        <v>133</v>
+      </c>
+      <c r="N1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K2" t="s">
+        <v>103</v>
+      </c>
+      <c r="L2" t="s">
+        <v>104</v>
+      </c>
+      <c r="M2" t="s">
+        <v>105</v>
+      </c>
+      <c r="N2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>114</v>
+      </c>
+      <c r="G8" t="s">
+        <v>117</v>
+      </c>
+      <c r="H8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>115</v>
+      </c>
+      <c r="G13" t="s">
+        <v>118</v>
+      </c>
+      <c r="H13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>116</v>
+      </c>
+      <c r="G15" t="s">
+        <v>119</v>
+      </c>
+      <c r="H15" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1760,7 +2394,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection sqref="A1:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
@@ -1857,4 +2491,686 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K1" t="s">
+        <v>97</v>
+      </c>
+      <c r="L1" t="s">
+        <v>132</v>
+      </c>
+      <c r="M1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N1" t="s">
+        <v>133</v>
+      </c>
+      <c r="O1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K2" t="s">
+        <v>102</v>
+      </c>
+      <c r="L2" t="s">
+        <v>103</v>
+      </c>
+      <c r="M2" t="s">
+        <v>104</v>
+      </c>
+      <c r="N2" t="s">
+        <v>105</v>
+      </c>
+      <c r="O2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>114</v>
+      </c>
+      <c r="G9" t="s">
+        <v>117</v>
+      </c>
+      <c r="H9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>115</v>
+      </c>
+      <c r="G14" t="s">
+        <v>118</v>
+      </c>
+      <c r="H14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>116</v>
+      </c>
+      <c r="G16" t="s">
+        <v>119</v>
+      </c>
+      <c r="H16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>